--- a/src/test/resources/finance/case/finance-restful-service.xlsx
+++ b/src/test/resources/finance/case/finance-restful-service.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACC6C39-8F86-4F22-A08C-73D6F96F1694}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E1D6A-3B34-4A35-8822-EE738D27CE33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>serviceUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4243,6 +4243,42 @@
   </si>
   <si>
     <t>/back-finance-web/apSupplierInvoice/queryInvoiceListWithPage.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ouser-web/cloud/organizationService/getOrgInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restfull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4591,98 +4627,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/finance/case/finance-restful-service.xlsx
+++ b/src/test/resources/finance/case/finance-restful-service.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E1D6A-3B34-4A35-8822-EE738D27CE33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502A8D0-6E5E-4C57-A0CA-4D9CC5A038AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>serviceUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4279,6 +4279,18 @@
   </si>
   <si>
     <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4627,21 +4639,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="65.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4652,19 +4665,22 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4675,16 +4691,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4695,16 +4714,19 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4715,16 +4737,19 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4735,16 +4760,19 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4755,16 +4783,19 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4775,16 +4806,19 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4795,12 +4829,15 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/finance/case/finance-restful-service.xlsx
+++ b/src/test/resources/finance/case/finance-restful-service.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4502A8D0-6E5E-4C57-A0CA-4D9CC5A038AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B305355-7760-4542-BD0F-106B0B5BA7E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>serviceUrl</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4291,6 +4291,18 @@
   </si>
   <si>
     <t>{"data":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paramAlias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"settlementStatusText":"$data.$listObj.List(0).$settlementStatusText"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"obj":{},"currentPage":1,"itemsPerPage":10,"settlementStatusText":"$settlementStatusText"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4639,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4651,10 +4663,11 @@
     <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4676,11 +4689,14 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4702,8 +4718,11 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4720,13 +4739,14 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4748,8 +4768,9 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -4771,8 +4792,9 @@
       <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4794,8 +4816,9 @@
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4817,8 +4840,9 @@
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4840,6 +4864,7 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
